--- a/last_report.xlsx
+++ b/last_report.xlsx
@@ -18540,7 +18540,7 @@
         <v>44442.28731481481</v>
       </c>
       <c r="UT10" s="1">
-        <v>45042.48453703704</v>
+        <v>45062.72027875535</v>
       </c>
     </row>
     <row r="11">
@@ -19719,16 +19719,16 @@
         <v>1</v>
       </c>
       <c r="OA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="OE11">
         <v>0</v>
@@ -20238,13 +20238,13 @@
         <v>0</v>
       </c>
       <c r="UR11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="US11" s="1">
         <v>44442.28777777778</v>
       </c>
       <c r="UT11" s="1">
-        <v>45042.30297453704</v>
+        <v>45062.75355053189</v>
       </c>
     </row>
     <row r="12">
@@ -21948,7 +21948,7 @@
         <v>44442.28916666667</v>
       </c>
       <c r="UT12" s="1">
-        <v>45054.75679498419</v>
+        <v>45057.6940361976</v>
       </c>
     </row>
     <row r="13">
@@ -46974,7 +46974,7 @@
         <v>0</v>
       </c>
       <c r="NX27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="NY27">
         <v>1</v>
@@ -47502,13 +47502,13 @@
         <v>0</v>
       </c>
       <c r="UR27">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="US27" s="1">
         <v>44442.36612268518</v>
       </c>
       <c r="UT27" s="1">
-        <v>45053.72418981481</v>
+        <v>45056.29023148148</v>
       </c>
     </row>
     <row r="28">
@@ -59436,7 +59436,7 @@
         <v>44465.39831018518</v>
       </c>
       <c r="UT34" s="1">
-        <v>45035.69432870371</v>
+        <v>45056.72316063596</v>
       </c>
     </row>
     <row r="35">
@@ -61140,7 +61140,7 @@
         <v>44516.26444444444</v>
       </c>
       <c r="UT35" s="1">
-        <v>45048.61051634539</v>
+        <v>45060.55438933913</v>
       </c>
     </row>
   </sheetData>
